--- a/Tools/TableTools/Tables/Excel/Skill/Tab_RuleData.xlsx
+++ b/Tools/TableTools/Tables/Excel/Skill/Tab_RuleData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>与逻辑相关的参数，如范围等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,18 +483,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
